--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1912,15 +1912,83 @@
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>hoje</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>produto</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>puta</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>quatro</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>naotem</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>naotem</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,6 +1989,318 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -1992,52 +1992,52 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2054,42 +2054,42 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>admin</t>
         </is>
       </c>
     </row>
@@ -2101,22 +2101,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2126,17 +2126,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2153,22 +2153,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2178,22 +2178,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
     </row>
@@ -2205,22 +2205,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2230,17 +2230,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2262,42 +2262,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8749</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>49684</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40935</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>9</t>
         </is>
       </c>
     </row>

--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +489,174 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eduardo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>coxinha</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>terceiro</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>988745</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Eduardo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>coxinha</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>terceiro</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>988745</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eduardo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>coxinha</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>terceiro</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>988745</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>eduardo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>coxinha</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>terceiro</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>98765</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,20 +625,14 @@
           <t>coxinha</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -650,12 +644,260 @@
           <t>terceiro</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>98765</t>
-        </is>
+      <c r="I5" t="n">
+        <v>98765</v>
       </c>
       <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45731</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>renan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>coca</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>terceiro</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>65432</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>vai pagar dia 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45718</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>natan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>hamburger</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>segundo</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>654</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ednaldo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>654231</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ednaldo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>654231</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ednaldo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>654231</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ednaldo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>654654</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ednaldo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>654654</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,6 +899,98 @@
       </c>
       <c r="J12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Renan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Coxinha</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Aluno</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3-B</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>11940028922</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Devendo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Renan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Coxinha</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Aluno</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3-B</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>11940028922</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Devendo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,20 +955,14 @@
           <t>Coxinha</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -980,14 +974,104 @@
           <t>3-B</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>11940028922</t>
-        </is>
+      <c r="I14" t="n">
+        <v>11940028922</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>Devendo</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Renan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Coxinha e Hall</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Aluno</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3ºE</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>11967840730</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Renan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Coxinha e Hall</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Aluno</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3ºE</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>11967840730</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Pago</t>
         </is>
       </c>
     </row>

--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,20 +1039,14 @@
           <t>Coxinha e Hall</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-15</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1064,14 +1058,142 @@
           <t>3ºE</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>11967840730</t>
-        </is>
+      <c r="I16" t="n">
+        <v>11967840730</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>Pago</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>natan</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>coca</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>segundo</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>354</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>asdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasda</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>eli</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>coca</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>terceiro</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>654</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>nao tem</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>renan</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>coxinha</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>terceiro</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>654</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>352456</t>
         </is>
       </c>
     </row>

--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,22 +1115,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>eli</t>
+          <t>renan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>coca</t>
+          <t>coxinha</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-50</v>
+        <v>-10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1147,53 +1147,263 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>nao tem</t>
+          <t>352456</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>coca</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>quarto</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>coca</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>quarto</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>coca</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>terceiro</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>68765</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>coca</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>quarto</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>coca</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>aluno</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>quarto</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>45773</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>renan</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>coxinha</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>eli</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>coca</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>-10</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>aluno</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>terceiro</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="I24" t="n">
         <v>654</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>352456</t>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>nao tem</t>
         </is>
       </c>
     </row>

--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1165,18 +1165,14 @@
           <t>coxinha</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D19" t="n">
+        <v>10</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="F19" t="n">
+        <v>-10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1194,6 +1190,56 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>352456</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Renan</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Coxinha e Coca Lata</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Aluno</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3ºE</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>11940028922</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Pago</t>
         </is>
       </c>
     </row>

--- a/db/controle_estoque.xlsx
+++ b/db/controle_estoque.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45752</v>
+        <v>46001</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Coxinha</t>
+          <t>Coxinha e Hall</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -929,21 +929,21 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3-B</t>
+          <t>3ºE</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11940028922</v>
+        <v>11967840730</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Devendo</t>
+          <t>Pago</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45752</v>
+        <v>46001</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -952,17 +952,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Coxinha</t>
+          <t>Coxinha e Hall</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -971,99 +971,99 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3-B</t>
+          <t>3ºE</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>11940028922</v>
+        <v>11967840730</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Devendo</t>
+          <t>Pago</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46001</v>
+        <v>45773</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>natan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Coxinha e Hall</t>
+          <t>coca</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Aluno</t>
+          <t>aluno</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3ºE</t>
+          <t>segundo</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>11967840730</v>
+        <v>354</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Pago</t>
+          <t>asdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasda</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46001</v>
+        <v>45773</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>eli</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Coxinha e Hall</t>
+          <t>coca</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Aluno</t>
+          <t>aluno</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3ºE</t>
+          <t>terceiro</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11967840730</v>
+        <v>654</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Pago</t>
+          <t>nao tem</t>
         </is>
       </c>
     </row>
@@ -1073,12 +1073,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>natan</t>
+          <t>renan</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>coca</t>
+          <t>coxinha</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1097,147 +1097,55 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>segundo</t>
+          <t>terceiro</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>354</v>
+        <v>654</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>asdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasdaasdasda</t>
+          <t>352456</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45773</v>
+        <v>45702</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>eli</t>
+          <t>Renan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>coca</t>
+          <t>Coxinha e Coca Lata</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>-50</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>aluno</t>
+          <t>Aluno</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>terceiro</t>
+          <t>3ºE</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>654</v>
+        <v>11940028922</v>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>nao tem</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45773</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>renan</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>coxinha</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>aluno</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>terceiro</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>654</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>352456</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45702</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Renan</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Coxinha e Coca Lata</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Aluno</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>3ºE</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>11940028922</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
         <is>
           <t>Pago</t>
         </is>
